--- a/F1_Data_9.xlsx
+++ b/F1_Data_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivory\OneDrive - inu.ac.kr\24-2\DataBase\DB-project-2024-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB43326-CBCA-45B3-9BE9-DD71C3A943F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1246AB3C-DB0E-4231-A558-078C61C54C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="765" windowWidth="26310" windowHeight="14355" xr2:uid="{A3789698-A9AD-4C33-9917-C4462A9EE3F6}"/>
+    <workbookView xWindow="825" yWindow="765" windowWidth="26310" windowHeight="14355" firstSheet="16" activeTab="23" xr2:uid="{A3789698-A9AD-4C33-9917-C4462A9EE3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Race_Date" sheetId="25" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="248">
   <si>
     <t>Pos</t>
   </si>
@@ -323,10 +323,6 @@
   </si>
   <si>
     <t>Haas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RB </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2318,9 +2314,6 @@
     <t>Nico Hulkenberg</t>
   </si>
   <si>
-    <t>Haas Ferrari</t>
-  </si>
-  <si>
     <t>+59.808s</t>
   </si>
   <si>
@@ -2501,6 +2494,20 @@
   </si>
   <si>
     <t>Spa-Francorchamps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mercedes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3163,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFDADCE-F347-4297-A3C4-EC8448B58196}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3177,16 +3184,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3197,10 +3204,10 @@
         <v>45355</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3211,10 +3218,10 @@
         <v>45361</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3225,10 +3232,10 @@
         <v>45375</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3239,10 +3246,10 @@
         <v>45389</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3253,10 +3260,10 @@
         <v>45403</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3267,10 +3274,10 @@
         <v>45418</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3281,10 +3288,10 @@
         <v>45431</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3295,10 +3302,10 @@
         <v>45438</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>151</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3309,10 +3316,10 @@
         <v>45453</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3323,10 +3330,10 @@
         <v>45466</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3337,10 +3344,10 @@
         <v>45473</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3351,10 +3358,10 @@
         <v>45480</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3365,10 +3372,10 @@
         <v>45494</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3379,10 +3386,10 @@
         <v>45501</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3393,10 +3400,10 @@
         <v>45529</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3407,10 +3414,10 @@
         <v>45536</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3421,10 +3428,10 @@
         <v>45550</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3435,10 +3442,10 @@
         <v>45557</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3449,10 +3456,10 @@
         <v>45586</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3463,10 +3470,10 @@
         <v>45593</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3477,10 +3484,10 @@
         <v>45600</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3491,10 +3498,10 @@
         <v>45620</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3505,10 +3512,10 @@
         <v>45628</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3519,10 +3526,10 @@
         <v>45634</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3625,7 +3632,7 @@
         <v>67</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -3661,7 +3668,7 @@
         <v>70</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -3698,7 +3705,7 @@
         <v>69</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -3735,7 +3742,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -3772,7 +3779,7 @@
         <v>71</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -3809,7 +3816,7 @@
         <v>72</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -3846,7 +3853,7 @@
         <v>72</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -3880,10 +3887,10 @@
         <v>18</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -3917,10 +3924,10 @@
         <v>18</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -3954,10 +3961,10 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -3994,7 +4001,7 @@
         <v>75</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -4031,7 +4038,7 @@
         <v>75</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -4068,7 +4075,7 @@
         <v>74</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -4102,10 +4109,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -4141,7 +4148,7 @@
         <v>73</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -4171,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>68</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -4207,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -4243,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>67</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -4279,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>68</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -4315,13 +4322,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -4425,7 +4432,7 @@
         <v>67</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -4461,7 +4468,7 @@
         <v>70</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -4498,7 +4505,7 @@
         <v>69</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -4535,7 +4542,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -4572,7 +4579,7 @@
         <v>68</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -4609,7 +4616,7 @@
         <v>68</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -4646,7 +4653,7 @@
         <v>71</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -4683,7 +4690,7 @@
         <v>67</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -4717,10 +4724,10 @@
         <v>18</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -4754,10 +4761,10 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -4794,7 +4801,7 @@
         <v>75</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -4831,7 +4838,7 @@
         <v>72</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -4868,7 +4875,7 @@
         <v>73</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -4905,7 +4912,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -4938,10 +4945,10 @@
         <v>18</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -4977,7 +4984,7 @@
         <v>74</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -5013,7 +5020,7 @@
         <v>75</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -5046,10 +5053,10 @@
         <v>18</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -5079,13 +5086,13 @@
         <v>5</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -5118,10 +5125,10 @@
         <v>18</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -5528,7 +5535,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L11" s="16">
         <v>0</v>
@@ -5565,7 +5572,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="16">
         <v>0</v>
@@ -5639,7 +5646,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -5713,7 +5720,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L16" s="16">
         <v>0</v>
@@ -5749,7 +5756,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" s="16">
         <v>0</v>
@@ -5854,7 +5861,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>72</v>
@@ -5893,7 +5900,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21" s="16">
         <v>0</v>
@@ -5926,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>70</v>
@@ -6036,7 +6043,7 @@
         <v>69</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -6072,7 +6079,7 @@
         <v>67</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -6109,7 +6116,7 @@
         <v>70</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -6146,7 +6153,7 @@
         <v>71</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -6183,7 +6190,7 @@
         <v>68</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -6220,7 +6227,7 @@
         <v>75</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -6257,7 +6264,7 @@
         <v>72</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -6294,7 +6301,7 @@
         <v>72</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -6328,10 +6335,10 @@
         <v>18</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -6365,10 +6372,10 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -6402,10 +6409,10 @@
         <v>18</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -6442,7 +6449,7 @@
         <v>75</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -6476,10 +6483,10 @@
         <v>18</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -6516,7 +6523,7 @@
         <v>68</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -6528,7 +6535,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="15">
         <v>51</v>
@@ -6552,7 +6559,7 @@
         <v>73</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -6585,10 +6592,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -6624,7 +6631,7 @@
         <v>67</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -6660,7 +6667,7 @@
         <v>73</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -6690,13 +6697,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>69</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -6726,13 +6733,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -6836,7 +6843,7 @@
         <v>70</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -6872,7 +6879,7 @@
         <v>70</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -6909,7 +6916,7 @@
         <v>69</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -6946,7 +6953,7 @@
         <v>68</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -6983,7 +6990,7 @@
         <v>67</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -7020,7 +7027,7 @@
         <v>68</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -7057,7 +7064,7 @@
         <v>67</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -7094,7 +7101,7 @@
         <v>69</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -7128,10 +7135,10 @@
         <v>18</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -7168,7 +7175,7 @@
         <v>72</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -7205,7 +7212,7 @@
         <v>72</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -7239,10 +7246,10 @@
         <v>18</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -7279,7 +7286,7 @@
         <v>75</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -7313,10 +7320,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -7352,7 +7359,7 @@
         <v>75</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -7388,7 +7395,7 @@
         <v>73</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -7421,10 +7428,10 @@
         <v>18</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -7457,10 +7464,10 @@
         <v>18</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -7496,7 +7503,7 @@
         <v>73</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -7526,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -7630,13 +7637,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>69</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -7672,7 +7679,7 @@
         <v>69</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -7709,7 +7716,7 @@
         <v>71</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -7746,7 +7753,7 @@
         <v>68</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -7783,7 +7790,7 @@
         <v>67</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -7820,7 +7827,7 @@
         <v>70</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -7857,7 +7864,7 @@
         <v>68</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -7894,7 +7901,7 @@
         <v>67</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -7931,7 +7938,7 @@
         <v>72</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -7965,10 +7972,10 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -8002,10 +8009,10 @@
         <v>18</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -8042,7 +8049,7 @@
         <v>72</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -8076,10 +8083,10 @@
         <v>18</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -8113,10 +8120,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -8152,7 +8159,7 @@
         <v>75</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -8188,7 +8195,7 @@
         <v>74</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -8221,10 +8228,10 @@
         <v>18</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -8257,10 +8264,10 @@
         <v>18</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -8296,7 +8303,7 @@
         <v>75</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -8326,13 +8333,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>73</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -8436,7 +8443,7 @@
         <v>70</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -8472,7 +8479,7 @@
         <v>67</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -8509,7 +8516,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -8546,7 +8553,7 @@
         <v>71</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -8583,7 +8590,7 @@
         <v>68</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -8620,7 +8627,7 @@
         <v>67</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -8657,7 +8664,7 @@
         <v>69</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -8694,7 +8701,7 @@
         <v>69</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -8728,10 +8735,10 @@
         <v>18</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -8768,7 +8775,7 @@
         <v>72</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -8805,7 +8812,7 @@
         <v>75</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -8839,10 +8846,10 @@
         <v>18</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -8879,7 +8886,7 @@
         <v>72</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -8913,10 +8920,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -8949,10 +8956,10 @@
         <v>18</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -8982,13 +8989,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -9021,10 +9028,10 @@
         <v>18</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -9060,7 +9067,7 @@
         <v>75</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -9096,7 +9103,7 @@
         <v>74</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -9132,7 +9139,7 @@
         <v>73</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -9237,7 +9244,7 @@
         <v>68</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -9273,7 +9280,7 @@
         <v>71</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="9"/>
@@ -9310,7 +9317,7 @@
         <v>70</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="9"/>
@@ -9347,7 +9354,7 @@
         <v>68</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="9"/>
@@ -9384,7 +9391,7 @@
         <v>69</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="9"/>
@@ -9421,7 +9428,7 @@
         <v>67</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="9"/>
@@ -9458,7 +9465,7 @@
         <v>69</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="9"/>
@@ -9495,7 +9502,7 @@
         <v>67</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="9"/>
@@ -9529,10 +9536,10 @@
         <v>18</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="9"/>
@@ -9563,13 +9570,13 @@
         <v>10</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>75</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="9"/>
@@ -9606,7 +9613,7 @@
         <v>72</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="9"/>
@@ -9619,7 +9626,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="10">
         <v>53</v>
@@ -9637,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="9"/>
@@ -9674,13 +9681,13 @@
         <v>15</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="9"/>
@@ -9714,10 +9721,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="12"/>
     </row>
@@ -9750,10 +9757,10 @@
         <v>18</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="12"/>
     </row>
@@ -9789,7 +9796,7 @@
         <v>74</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="12"/>
     </row>
@@ -9825,7 +9832,7 @@
         <v>75</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="12"/>
     </row>
@@ -9861,7 +9868,7 @@
         <v>73</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="12"/>
     </row>
@@ -9897,7 +9904,7 @@
         <v>72</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="12"/>
     </row>
@@ -9927,13 +9934,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="12"/>
     </row>
@@ -10037,7 +10044,7 @@
         <v>71</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -10073,7 +10080,7 @@
         <v>68</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -10110,7 +10117,7 @@
         <v>69</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -10147,7 +10154,7 @@
         <v>70</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -10184,7 +10191,7 @@
         <v>67</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -10221,7 +10228,7 @@
         <v>72</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -10255,10 +10262,10 @@
         <v>18</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -10292,10 +10299,10 @@
         <v>18</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -10332,7 +10339,7 @@
         <v>69</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -10345,7 +10352,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="15">
         <v>51</v>
@@ -10363,13 +10370,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>75</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -10406,7 +10413,7 @@
         <v>75</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -10440,10 +10447,10 @@
         <v>18</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -10477,10 +10484,10 @@
         <v>18</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -10517,7 +10524,7 @@
         <v>73</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -10550,10 +10557,10 @@
         <v>18</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -10589,7 +10596,7 @@
         <v>74</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -10619,13 +10626,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>67</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -10655,13 +10662,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>68</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -10691,13 +10698,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>72</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -10727,13 +10734,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -10837,7 +10844,7 @@
         <v>70</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -10873,7 +10880,7 @@
         <v>67</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -10910,7 +10917,7 @@
         <v>71</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -10947,7 +10954,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -10984,7 +10991,7 @@
         <v>68</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -11021,7 +11028,7 @@
         <v>69</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -11058,7 +11065,7 @@
         <v>68</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -11095,7 +11102,7 @@
         <v>72</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -11132,7 +11139,7 @@
         <v>75</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -11169,7 +11176,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -11203,10 +11210,10 @@
         <v>18</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -11240,10 +11247,10 @@
         <v>18</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -11277,10 +11284,10 @@
         <v>18</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -11317,7 +11324,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -11353,7 +11360,7 @@
         <v>73</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -11389,7 +11396,7 @@
         <v>74</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -11422,10 +11429,10 @@
         <v>18</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -11455,13 +11462,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -11491,13 +11498,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>75</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -11527,13 +11534,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -11548,7 +11555,7 @@
   <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11638,7 +11645,7 @@
         <v>67</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -11674,7 +11681,7 @@
         <v>67</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="12"/>
       <c r="O4" s="9"/>
@@ -11711,7 +11718,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="12"/>
       <c r="O5" s="9"/>
@@ -11748,7 +11755,7 @@
         <v>68</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="12"/>
       <c r="O6" s="9"/>
@@ -11785,7 +11792,7 @@
         <v>69</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="12"/>
       <c r="O7" s="9"/>
@@ -11822,7 +11829,7 @@
         <v>71</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="12"/>
       <c r="O8" s="9"/>
@@ -11859,7 +11866,7 @@
         <v>69</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="12"/>
       <c r="O9" s="9"/>
@@ -11896,7 +11903,7 @@
         <v>71</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="12"/>
       <c r="O10" s="9"/>
@@ -11933,7 +11940,7 @@
         <v>72</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="12"/>
       <c r="O11" s="9"/>
@@ -11970,7 +11977,7 @@
         <v>72</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="12"/>
       <c r="O12" s="9"/>
@@ -12007,7 +12014,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="12"/>
       <c r="O13" s="9"/>
@@ -12044,7 +12051,7 @@
         <v>75</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="12"/>
       <c r="O14" s="9"/>
@@ -12078,10 +12085,10 @@
         <v>18</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="12"/>
       <c r="O15" s="9"/>
@@ -12115,10 +12122,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="12"/>
       <c r="O16" s="1"/>
@@ -12152,10 +12159,10 @@
         <v>18</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="12"/>
       <c r="O17" s="1"/>
@@ -12192,7 +12199,7 @@
         <v>75</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="12"/>
       <c r="O18" s="1"/>
@@ -12226,10 +12233,10 @@
         <v>18</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="12"/>
       <c r="O19" s="1"/>
@@ -12263,10 +12270,10 @@
         <v>18</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="12"/>
       <c r="O20" s="1"/>
@@ -12303,7 +12310,7 @@
         <v>74</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="12"/>
       <c r="O21" s="1"/>
@@ -12337,10 +12344,10 @@
         <v>18</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="12"/>
       <c r="O22" s="1"/>
@@ -12734,10 +12741,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L11" s="16">
         <v>0</v>
@@ -12774,7 +12781,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L12" s="16">
         <v>0</v>
@@ -12848,7 +12855,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -12922,7 +12929,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L16" s="16">
         <v>0</v>
@@ -12994,7 +13001,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L18" s="16">
         <v>0</v>
@@ -13063,10 +13070,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L20" s="16">
         <v>0</v>
@@ -13135,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>69</v>
@@ -13245,7 +13252,7 @@
         <v>68</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -13281,7 +13288,7 @@
         <v>70</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -13318,7 +13325,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -13355,7 +13362,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -13392,7 +13399,7 @@
         <v>69</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -13429,7 +13436,7 @@
         <v>67</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -13466,7 +13473,7 @@
         <v>75</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -13503,7 +13510,7 @@
         <v>71</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -13540,7 +13547,7 @@
         <v>75</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -13574,10 +13581,10 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -13614,7 +13621,7 @@
         <v>72</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -13645,13 +13652,13 @@
         <v>10</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -13685,10 +13692,10 @@
         <v>18</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -13725,7 +13732,7 @@
         <v>74</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -13761,7 +13768,7 @@
         <v>73</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -13794,10 +13801,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -13833,7 +13840,7 @@
         <v>67</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -13863,13 +13870,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>72</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -13899,13 +13906,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -13935,13 +13942,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -13955,7 +13962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB56A776-37E6-4A8D-9B9E-2789FF2066DF}">
   <dimension ref="B2:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -14076,7 +14085,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" s="16">
         <v>0</v>
@@ -14113,7 +14122,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="16">
         <v>2</v>
@@ -14261,7 +14270,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="L9" s="16">
         <v>0</v>
@@ -14295,7 +14304,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>71</v>
@@ -14335,7 +14344,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="L11" s="16">
         <v>0</v>
@@ -14425,7 +14434,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="15">
         <v>69</v>
@@ -14443,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>75</v>
@@ -14589,7 +14598,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>68</v>
@@ -14625,10 +14634,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L19" s="16">
         <v>0</v>
@@ -14661,10 +14670,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20" s="16">
         <v>0</v>
@@ -14697,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>72</v>
@@ -14733,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>75</v>
@@ -14754,7 +14763,7 @@
   <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14813,7 +14822,7 @@
         <v>63</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="15">
         <v>50</v>
@@ -14834,11 +14843,11 @@
         <v>18</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L3" s="30"/>
       <c r="N3" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="17.25">
@@ -14849,7 +14858,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="15">
         <v>50</v>
@@ -14870,11 +14879,11 @@
         <v>18</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L4" s="30"/>
       <c r="N4" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="17.25">
@@ -14885,7 +14894,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="15">
         <v>50</v>
@@ -14906,11 +14915,11 @@
         <v>18</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L5" s="30"/>
       <c r="N5" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="17.25">
@@ -14921,7 +14930,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="15">
         <v>50</v>
@@ -14942,11 +14951,11 @@
         <v>18</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L6" s="30"/>
       <c r="N6" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="17.25">
@@ -14957,7 +14966,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" s="15">
         <v>50</v>
@@ -14975,14 +14984,14 @@
         <v>0</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L7" s="30"/>
       <c r="N7" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25">
@@ -14993,7 +15002,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" s="15">
         <v>50</v>
@@ -15014,11 +15023,11 @@
         <v>18</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L8" s="30"/>
       <c r="N8" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="17.25">
@@ -15029,7 +15038,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="15">
         <v>50</v>
@@ -15050,11 +15059,11 @@
         <v>18</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L9" s="30"/>
       <c r="N9" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="17.25">
@@ -15065,7 +15074,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="15">
         <v>50</v>
@@ -15086,11 +15095,11 @@
         <v>18</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L10" s="30"/>
       <c r="N10" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="17.25">
@@ -15101,7 +15110,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E11" s="15">
         <v>50</v>
@@ -15122,11 +15131,11 @@
         <v>18</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L11" s="30"/>
       <c r="N11" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="17.25">
@@ -15137,7 +15146,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E12" s="15">
         <v>50</v>
@@ -15158,11 +15167,11 @@
         <v>18</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L12" s="30"/>
       <c r="N12" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="17.25">
@@ -15173,7 +15182,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="15">
         <v>50</v>
@@ -15194,11 +15203,11 @@
         <v>18</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L13" s="30"/>
       <c r="N13" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25">
@@ -15209,7 +15218,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" s="15">
         <v>50</v>
@@ -15230,11 +15239,11 @@
         <v>18</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L14" s="30"/>
       <c r="N14" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="17.25">
@@ -15245,7 +15254,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E15" s="15">
         <v>50</v>
@@ -15266,11 +15275,11 @@
         <v>18</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L15" s="30"/>
       <c r="N15" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="17.25">
@@ -15281,7 +15290,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E16" s="15">
         <v>50</v>
@@ -15302,11 +15311,11 @@
         <v>18</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L16" s="30"/>
       <c r="N16" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.25">
@@ -15317,7 +15326,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E17" s="15">
         <v>50</v>
@@ -15338,11 +15347,11 @@
         <v>18</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L17" s="30"/>
       <c r="N17" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="17.25">
@@ -15353,7 +15362,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E18" s="15">
         <v>50</v>
@@ -15374,7 +15383,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L18" s="30"/>
     </row>
@@ -15386,7 +15395,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E19" s="15">
         <v>49</v>
@@ -15407,7 +15416,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L19" s="30"/>
     </row>
@@ -15419,7 +15428,7 @@
         <v>77</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E20" s="15">
         <v>49</v>
@@ -15440,7 +15449,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L20" s="30"/>
     </row>
@@ -15452,7 +15461,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E21" s="15">
         <v>25</v>
@@ -15470,10 +15479,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L21" s="30"/>
     </row>
@@ -15485,7 +15494,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E22" s="15">
         <v>15</v>
@@ -15503,10 +15512,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L22" s="30"/>
     </row>
@@ -15518,9 +15527,9 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1756E8-DB9F-40EE-A791-05C2FEDC9AAE}">
-  <dimension ref="B2:L22"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -15537,7 +15546,7 @@
     <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18">
+    <row r="2" spans="2:14" ht="18">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -15572,7 +15581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:14">
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -15580,7 +15589,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E3" s="15">
         <v>57</v>
@@ -15589,7 +15598,7 @@
         <v>6.3256053240740739E-2</v>
       </c>
       <c r="G3" s="15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="12">
         <v>0</v>
@@ -15601,13 +15610,17 @@
         <v>18</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="L3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="N3">
+        <f>SUM(G3,L3)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="15">
         <v>2</v>
       </c>
@@ -15615,7 +15628,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="15">
         <v>57</v>
@@ -15624,7 +15637,7 @@
         <v>6.3325590277777774E-2</v>
       </c>
       <c r="G4" s="15">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -15636,13 +15649,17 @@
         <v>18</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="L4" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="N4">
+        <f t="shared" ref="N4:N22" si="0">SUM(G4,L4)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -15650,7 +15667,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="15">
         <v>57</v>
@@ -15659,7 +15676,7 @@
         <v>6.3333333333333339E-2</v>
       </c>
       <c r="G5" s="15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H5" s="12">
         <v>0</v>
@@ -15671,13 +15688,17 @@
         <v>18</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="L5" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="15">
         <v>4</v>
       </c>
@@ -15685,7 +15706,7 @@
         <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="15">
         <v>57</v>
@@ -15694,7 +15715,7 @@
         <v>6.3419027777777789E-2</v>
       </c>
       <c r="G6" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H6" s="12">
         <v>0</v>
@@ -15703,16 +15724,20 @@
         <v>5</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="L6" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="15">
         <v>5</v>
       </c>
@@ -15720,7 +15745,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E7" s="15">
         <v>57</v>
@@ -15741,13 +15766,17 @@
         <v>18</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:12">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="15">
         <v>6</v>
       </c>
@@ -15755,7 +15784,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="15">
         <v>57</v>
@@ -15764,7 +15793,7 @@
         <v>6.3458055555555559E-2</v>
       </c>
       <c r="G8" s="15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H8" s="12">
         <v>0</v>
@@ -15776,13 +15805,17 @@
         <v>18</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="L8" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="15">
         <v>7</v>
       </c>
@@ -15790,7 +15823,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E9" s="15">
         <v>57</v>
@@ -15811,13 +15844,17 @@
         <v>18</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="15">
         <v>8</v>
       </c>
@@ -15825,7 +15862,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E10" s="15">
         <v>57</v>
@@ -15846,13 +15883,17 @@
         <v>18</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="15">
         <v>9</v>
       </c>
@@ -15860,7 +15901,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E11" s="15">
         <v>57</v>
@@ -15881,13 +15922,17 @@
         <v>18</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="15">
         <v>10</v>
       </c>
@@ -15895,7 +15940,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" s="15">
         <v>57</v>
@@ -15904,7 +15949,7 @@
         <v>6.3669699074074076E-2</v>
       </c>
       <c r="G12" s="15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H12" s="12">
         <v>1</v>
@@ -15913,16 +15958,20 @@
         <v>10</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="L12" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="15">
         <v>11</v>
       </c>
@@ -15930,7 +15979,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E13" s="15">
         <v>57</v>
@@ -15951,13 +16000,17 @@
         <v>18</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="15">
         <v>12</v>
       </c>
@@ -15965,7 +16018,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="15">
         <v>57</v>
@@ -15974,7 +16027,7 @@
         <v>6.3905347222222214E-2</v>
       </c>
       <c r="G14" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
@@ -15986,13 +16039,17 @@
         <v>18</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L14" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" s="15">
         <v>13</v>
       </c>
@@ -16000,7 +16057,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E15" s="15">
         <v>57</v>
@@ -16021,13 +16078,17 @@
         <v>18</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L15" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" s="15">
         <v>14</v>
       </c>
@@ -16035,7 +16096,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E16" s="15">
         <v>57</v>
@@ -16056,13 +16117,17 @@
         <v>18</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L16" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="15">
         <v>15</v>
       </c>
@@ -16070,7 +16135,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E17" s="15">
         <v>56</v>
@@ -16091,13 +16156,17 @@
         <v>18</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="15">
         <v>30</v>
       </c>
@@ -16105,7 +16174,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="15">
         <v>39</v>
@@ -16114,7 +16183,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="12">
         <v>0</v>
@@ -16123,16 +16192,20 @@
         <v>0</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="L18" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="15">
         <v>30</v>
       </c>
@@ -16140,7 +16213,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E19" s="15">
         <v>38</v>
@@ -16158,16 +16231,20 @@
         <v>0</v>
       </c>
       <c r="J19" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>237</v>
-      </c>
       <c r="L19" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="15">
         <v>30</v>
       </c>
@@ -16175,7 +16252,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E20" s="15">
         <v>8</v>
@@ -16193,16 +16270,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L20" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="15">
         <v>30</v>
       </c>
@@ -16210,7 +16291,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -16228,16 +16309,20 @@
         <v>0</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L21" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="15">
         <v>30</v>
       </c>
@@ -16245,7 +16330,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E22" s="15">
         <v>0</v>
@@ -16263,12 +16348,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -16980,7 +17069,7 @@
   <dimension ref="B2:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17069,7 +17158,7 @@
         <v>67</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="12"/>
       <c r="O3" s="1"/>
@@ -17106,7 +17195,7 @@
         <v>67</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="12"/>
       <c r="O4" s="9"/>
@@ -17143,7 +17232,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="12"/>
       <c r="O5" s="9"/>
@@ -17180,7 +17269,7 @@
         <v>71</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="12"/>
       <c r="O6" s="9"/>
@@ -17217,7 +17306,7 @@
         <v>72</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="12"/>
       <c r="O7" s="9"/>
@@ -17254,7 +17343,7 @@
         <v>69</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="12"/>
       <c r="O8" s="9"/>
@@ -17267,7 +17356,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="10">
         <v>50</v>
@@ -17285,13 +17374,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>68</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="12"/>
       <c r="O9" s="9"/>
@@ -17328,7 +17417,7 @@
         <v>70</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="12"/>
       <c r="O10" s="9"/>
@@ -17365,7 +17454,7 @@
         <v>69</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="12"/>
       <c r="O11" s="9"/>
@@ -17402,7 +17491,7 @@
         <v>75</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="12"/>
       <c r="O12" s="9"/>
@@ -17436,10 +17525,10 @@
         <v>18</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="12"/>
       <c r="O13" s="9"/>
@@ -17470,13 +17559,13 @@
         <v>20</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>75</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="12"/>
       <c r="O14" s="9"/>
@@ -17510,10 +17599,10 @@
         <v>18</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="12"/>
       <c r="O15" s="9"/>
@@ -17547,10 +17636,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="12"/>
       <c r="O16" s="1"/>
@@ -17584,10 +17673,10 @@
         <v>18</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="12"/>
       <c r="O17" s="1"/>
@@ -17621,10 +17710,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="12"/>
       <c r="O18" s="1"/>
@@ -17661,7 +17750,7 @@
         <v>74</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="12"/>
       <c r="O19" s="1"/>
@@ -17698,7 +17787,7 @@
         <v>73</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="12"/>
       <c r="O20" s="1"/>
@@ -17729,13 +17818,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>72</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="12"/>
       <c r="O21" s="1"/>
@@ -17766,13 +17855,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="12"/>
       <c r="O22" s="1"/>
@@ -17796,7 +17885,7 @@
   <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17886,7 +17975,7 @@
         <v>68</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
       <c r="O3" s="1"/>
@@ -17923,7 +18012,7 @@
         <v>68</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="O4" s="9"/>
@@ -17960,7 +18049,7 @@
         <v>70</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="O5" s="9"/>
@@ -17997,7 +18086,7 @@
         <v>71</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="O6" s="9"/>
@@ -18034,7 +18123,7 @@
         <v>67</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="O7" s="9"/>
@@ -18071,7 +18160,7 @@
         <v>72</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="O8" s="9"/>
@@ -18105,10 +18194,10 @@
         <v>18</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="O9" s="9"/>
@@ -18139,13 +18228,13 @@
         <v>20</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>72</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="O10" s="9"/>
@@ -18182,7 +18271,7 @@
         <v>75</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="O11" s="9"/>
@@ -18219,7 +18308,7 @@
         <v>75</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="O12" s="9"/>
@@ -18253,10 +18342,10 @@
         <v>18</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="O13" s="9"/>
@@ -18290,10 +18379,10 @@
         <v>18</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="O14" s="9"/>
@@ -18324,13 +18413,13 @@
         <v>5</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="O15" s="9"/>
@@ -18367,7 +18456,7 @@
         <v>74</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
       <c r="O16" s="1"/>
@@ -18404,7 +18493,7 @@
         <v>74</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
       <c r="O17" s="1"/>
@@ -18438,10 +18527,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
       <c r="O18" s="1"/>
@@ -18472,13 +18561,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>69</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
       <c r="O19" s="1"/>
@@ -18509,13 +18598,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
       <c r="O20" s="1"/>
@@ -18546,13 +18635,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>67</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
       <c r="O21" s="1"/>
@@ -18583,13 +18672,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
       <c r="O22" s="1"/>
@@ -18695,7 +18784,7 @@
         <v>67</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -18731,7 +18820,7 @@
         <v>67</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -18768,7 +18857,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -18805,7 +18894,7 @@
         <v>68</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -18842,7 +18931,7 @@
         <v>70</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -18879,7 +18968,7 @@
         <v>72</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -18916,7 +19005,7 @@
         <v>69</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -18953,7 +19042,7 @@
         <v>71</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -18990,7 +19079,7 @@
         <v>69</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -19024,10 +19113,10 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -19064,7 +19153,7 @@
         <v>75</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -19101,7 +19190,7 @@
         <v>72</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -19138,7 +19227,7 @@
         <v>75</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -19175,7 +19264,7 @@
         <v>74</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -19208,10 +19297,10 @@
         <v>18</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -19244,10 +19333,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -19280,10 +19369,10 @@
         <v>18</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -19313,13 +19402,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>73</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -19349,13 +19438,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -19385,13 +19474,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -19862,7 +19951,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" s="16">
         <v>0</v>
@@ -19899,7 +19988,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -19936,7 +20025,7 @@
         <v>18</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="16">
         <v>0</v>
@@ -20006,7 +20095,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>72</v>
@@ -20042,7 +20131,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>75</v>
@@ -20078,10 +20167,10 @@
         <v>10</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L19" s="16">
         <v>0</v>
@@ -20114,10 +20203,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L20" s="16">
         <v>0</v>
@@ -20150,10 +20239,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L21" s="16">
         <v>0</v>
@@ -20186,7 +20275,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>74</v>
@@ -20437,7 +20526,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>68</v>
@@ -20514,7 +20603,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L9" s="16">
         <v>1</v>
@@ -20625,7 +20714,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="16">
         <v>0</v>
@@ -20699,7 +20788,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -20733,7 +20822,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>71</v>
@@ -20810,7 +20899,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L17" s="16">
         <v>5</v>
@@ -20881,7 +20970,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>72</v>
@@ -20921,7 +21010,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20" s="16">
         <v>0</v>
@@ -20955,7 +21044,7 @@
         <v>30</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>75</v>
@@ -20992,10 +21081,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="16">
         <v>0</v>
@@ -21102,7 +21191,7 @@
         <v>67</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -21138,7 +21227,7 @@
         <v>70</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -21175,7 +21264,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -21212,7 +21301,7 @@
         <v>71</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -21249,7 +21338,7 @@
         <v>68</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -21286,7 +21375,7 @@
         <v>69</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -21323,7 +21412,7 @@
         <v>69</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -21360,7 +21449,7 @@
         <v>67</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -21397,7 +21486,7 @@
         <v>72</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -21431,10 +21520,10 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -21471,7 +21560,7 @@
         <v>75</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -21508,7 +21597,7 @@
         <v>75</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -21542,10 +21631,10 @@
         <v>18</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -21579,10 +21668,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -21618,7 +21707,7 @@
         <v>73</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -21651,10 +21740,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -21687,10 +21776,10 @@
         <v>18</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -21726,7 +21815,7 @@
         <v>74</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -21762,7 +21851,7 @@
         <v>72</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -21792,13 +21881,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -21902,7 +21991,7 @@
         <v>68</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -21938,7 +22027,7 @@
         <v>71</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -21975,7 +22064,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -22012,7 +22101,7 @@
         <v>70</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -22049,7 +22138,7 @@
         <v>69</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -22086,7 +22175,7 @@
         <v>67</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -22123,7 +22212,7 @@
         <v>69</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -22157,10 +22246,10 @@
         <v>18</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -22194,10 +22283,10 @@
         <v>18</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -22231,10 +22320,10 @@
         <v>18</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -22271,7 +22360,7 @@
         <v>72</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -22305,10 +22394,10 @@
         <v>18</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -22345,7 +22434,7 @@
         <v>74</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -22382,7 +22471,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -22415,10 +22504,10 @@
         <v>18</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -22454,7 +22543,7 @@
         <v>73</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -22484,13 +22573,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -22520,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>67</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -22556,13 +22645,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>75</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -22592,13 +22681,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>75</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="16"/>
     </row>
